--- a/para/templateCap.xlsx
+++ b/para/templateCap.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="367" documentId="11_AD4DB114E441178AC67DF439BED5CE16693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D5EDEC4-8C43-4DA1-8791-54855B263C70}"/>
   <bookViews>
-    <workbookView xWindow="4356" yWindow="2220" windowWidth="23040" windowHeight="12204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -10891,6 +10891,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11156,7 +11160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:B14"/>
     </sheetView>
   </sheetViews>
@@ -11266,7 +11270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8064A7B3-208D-49B4-A622-7BE04E7FA670}">
   <dimension ref="A1:P109"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B93" sqref="B93:C96"/>
     </sheetView>
   </sheetViews>
@@ -12798,7 +12802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB07583-2F94-4C44-B797-F29E5519DCF0}">
   <dimension ref="A1:P148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>

--- a/para/templateCap.xlsx
+++ b/para/templateCap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/02_Herts/03_VRF/23_PE/05_PWM_Losses/para/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/para/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="367" documentId="11_AD4DB114E441178AC67DF439BED5CE16693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D5EDEC4-8C43-4DA1-8791-54855B263C70}"/>
+  <xr:revisionPtr revIDLastSave="389" documentId="11_AD4DB114E441178AC67DF439BED5CE16693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F2FC218-A5E9-4047-9925-2755C69411BB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="120">
   <si>
     <t>Parameter</t>
   </si>
@@ -324,6 +324,81 @@
   <si>
     <t>Test</t>
   </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Changes</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>v.0.0</t>
+  </si>
+  <si>
+    <t>17.08.2023</t>
+  </si>
+  <si>
+    <t>Initial implementation of the config template</t>
+  </si>
+  <si>
+    <t>Pascal Schirmer</t>
+  </si>
+  <si>
+    <t>Color-Code</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>v.0.1</t>
+  </si>
+  <si>
+    <t>17.02.2024</t>
+  </si>
+  <si>
+    <t>Review for python implementation</t>
+  </si>
+  <si>
+    <t>Headings</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>v.1.0</t>
+  </si>
+  <si>
+    <t>23.06.2024</t>
+  </si>
+  <si>
+    <t>First complete template</t>
+  </si>
+  <si>
+    <t>Information (can be changed for personal notes and markup)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Input values</t>
+  </si>
+  <si>
+    <t>Variable names read by toolkit</t>
+  </si>
 </sst>
 </file>
 
@@ -360,15 +435,45 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -452,28 +557,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -504,30 +587,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -653,8 +712,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -667,11 +739,347 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -681,74 +1089,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10891,10 +11331,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11158,20 +11594,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="51.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B1" t="s">
@@ -11179,34 +11618,34 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B8" t="s">
@@ -11214,7 +11653,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B9" t="s">
@@ -11222,7 +11661,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="6" t="s">
         <v>86</v>
       </c>
       <c r="B10" t="s">
@@ -11230,7 +11669,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B11" t="s">
@@ -11238,7 +11677,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C12" t="s">
@@ -11246,7 +11685,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C13" t="s">
@@ -11254,14 +11693,150 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="6" t="s">
         <v>91</v>
       </c>
       <c r="C14" t="s">
         <v>88</v>
       </c>
     </row>
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" t="s">
+        <v>111</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>4</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" t="s">
+        <v>118</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>5</v>
+      </c>
+      <c r="J25" s="20"/>
+      <c r="K25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J20:L20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11270,8 +11845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8064A7B3-208D-49B4-A622-7BE04E7FA670}">
   <dimension ref="A1:P109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B93" sqref="B93:C96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11280,1517 +11855,1559 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="51" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="12" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="54" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="12" t="s">
+      <c r="E3" s="55"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="54" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="12" t="s">
+      <c r="E4" s="55"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="54" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="12" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="54" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="12" t="s">
+      <c r="E6" s="55"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="54" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="12" t="s">
+      <c r="E7" s="55"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="54" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="55">
         <v>20</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="37">
         <v>20</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="37">
         <v>105</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="12" t="s">
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="54" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="12" t="s">
+      <c r="E9" s="55"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="54" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="55">
         <v>120</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="37">
         <v>120</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="37">
         <v>1000</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="37">
         <v>10000</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="37">
         <v>100000</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="12" t="s">
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="54" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="12"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="54"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="12"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="54"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="12"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="54"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="12"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="54"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="12"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="54"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="12"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="54"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="12"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="54"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="12"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="54"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="12"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="54"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="12"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="54"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="12"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="54"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="12"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="54"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="12"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="54"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="12"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="54"/>
     </row>
     <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="22"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="62"/>
     </row>
     <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="41"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="67"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="44"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="70"/>
     </row>
     <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25">
+      <c r="A32" s="64"/>
+      <c r="B32" s="73">
         <f>F$8</f>
         <v>20</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="74">
         <f t="shared" ref="C32:J32" si="0">G$8</f>
         <v>105</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H32" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I32" s="25">
+      <c r="I32" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J32" s="25">
+      <c r="J32" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K32" s="26">
+      <c r="K32" s="75">
         <f>O$8</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27">
+      <c r="A33" s="71">
         <f>F$10</f>
         <v>120</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="28"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="76"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="27">
+      <c r="A34" s="71">
         <f>G$10</f>
         <v>1000</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="28"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="42"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="27">
+      <c r="A35" s="71">
         <f>H$10</f>
         <v>10000</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="28"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="42"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="27">
+      <c r="A36" s="71">
         <f>I$10</f>
         <v>100000</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="28"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="42"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="27">
+      <c r="A37" s="71">
         <f>J$10</f>
         <v>0</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="28"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="42"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="27">
+      <c r="A38" s="71">
         <f>K$10</f>
         <v>0</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="28"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="42"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="27">
+      <c r="A39" s="71">
         <f>L$10</f>
         <v>0</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="28"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="42"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="27">
+      <c r="A40" s="71">
         <f>M$10</f>
         <v>0</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="28"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="42"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="27">
+      <c r="A41" s="71">
         <f>N$10</f>
         <v>0</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="28"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="42"/>
     </row>
     <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="29">
+      <c r="A42" s="72">
         <f>O$10</f>
         <v>0</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="30"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="48"/>
     </row>
     <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="41"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="67"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="44"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="70"/>
     </row>
     <row r="52" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="24"/>
-      <c r="B52" s="25">
+      <c r="A52" s="64"/>
+      <c r="B52" s="73">
         <f>F$8</f>
         <v>20</v>
       </c>
-      <c r="C52" s="25">
+      <c r="C52" s="74">
         <f t="shared" ref="C52" si="1">G$8</f>
         <v>105</v>
       </c>
-      <c r="D52" s="25">
+      <c r="D52" s="74">
         <f t="shared" ref="D52" si="2">H$8</f>
         <v>0</v>
       </c>
-      <c r="E52" s="25">
+      <c r="E52" s="74">
         <f t="shared" ref="E52" si="3">I$8</f>
         <v>0</v>
       </c>
-      <c r="F52" s="25">
+      <c r="F52" s="74">
         <f t="shared" ref="F52" si="4">J$8</f>
         <v>0</v>
       </c>
-      <c r="G52" s="25">
+      <c r="G52" s="74">
         <f t="shared" ref="G52" si="5">K$8</f>
         <v>0</v>
       </c>
-      <c r="H52" s="25">
+      <c r="H52" s="74">
         <f t="shared" ref="H52" si="6">L$8</f>
         <v>0</v>
       </c>
-      <c r="I52" s="25">
+      <c r="I52" s="74">
         <f t="shared" ref="I52" si="7">M$8</f>
         <v>0</v>
       </c>
-      <c r="J52" s="25">
+      <c r="J52" s="74">
         <f t="shared" ref="J52" si="8">N$8</f>
         <v>0</v>
       </c>
-      <c r="K52" s="26">
+      <c r="K52" s="75">
         <f>O$8</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="27">
+      <c r="A53" s="71">
         <f>F$10</f>
         <v>120</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="28"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="76"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="27">
+      <c r="A54" s="71">
         <f>G$10</f>
         <v>1000</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="28"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="42"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="27">
+      <c r="A55" s="71">
         <f>H$10</f>
         <v>10000</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="28"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="42"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="27">
+      <c r="A56" s="71">
         <f>I$10</f>
         <v>100000</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="28"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="42"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="27">
+      <c r="A57" s="71">
         <f>J$10</f>
         <v>0</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="28"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="42"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="27">
+      <c r="A58" s="71">
         <f>K$10</f>
         <v>0</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="28"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="42"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="27">
+      <c r="A59" s="71">
         <f>L$10</f>
         <v>0</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="28"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="42"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="27">
+      <c r="A60" s="71">
         <f>M$10</f>
         <v>0</v>
       </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="28"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="42"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="27">
+      <c r="A61" s="71">
         <f>N$10</f>
         <v>0</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="28"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="42"/>
     </row>
     <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="29">
+      <c r="A62" s="72">
         <f>O$10</f>
         <v>0</v>
       </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="30"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="48"/>
     </row>
     <row r="69" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="39" t="s">
+      <c r="A70" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="40"/>
-      <c r="K70" s="41"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
+      <c r="J70" s="66"/>
+      <c r="K70" s="67"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="32"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="33"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="69"/>
+      <c r="H71" s="69"/>
+      <c r="I71" s="69"/>
+      <c r="J71" s="69"/>
+      <c r="K71" s="70"/>
     </row>
     <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="24"/>
-      <c r="B72" s="25">
+      <c r="A72" s="64"/>
+      <c r="B72" s="73">
         <f>F$8</f>
         <v>20</v>
       </c>
-      <c r="C72" s="25">
+      <c r="C72" s="74">
         <f t="shared" ref="C72" si="9">G$8</f>
         <v>105</v>
       </c>
-      <c r="D72" s="25">
+      <c r="D72" s="74">
         <f t="shared" ref="D72" si="10">H$8</f>
         <v>0</v>
       </c>
-      <c r="E72" s="25">
+      <c r="E72" s="74">
         <f t="shared" ref="E72" si="11">I$8</f>
         <v>0</v>
       </c>
-      <c r="F72" s="25">
+      <c r="F72" s="74">
         <f t="shared" ref="F72" si="12">J$8</f>
         <v>0</v>
       </c>
-      <c r="G72" s="25">
+      <c r="G72" s="74">
         <f t="shared" ref="G72" si="13">K$8</f>
         <v>0</v>
       </c>
-      <c r="H72" s="25">
+      <c r="H72" s="74">
         <f t="shared" ref="H72" si="14">L$8</f>
         <v>0</v>
       </c>
-      <c r="I72" s="25">
+      <c r="I72" s="74">
         <f t="shared" ref="I72" si="15">M$8</f>
         <v>0</v>
       </c>
-      <c r="J72" s="25">
+      <c r="J72" s="74">
         <f t="shared" ref="J72" si="16">N$8</f>
         <v>0</v>
       </c>
-      <c r="K72" s="26">
+      <c r="K72" s="75">
         <f>O$8</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="27">
+      <c r="A73" s="71">
         <f>F$10</f>
         <v>120</v>
       </c>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="28"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="76"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="27">
+      <c r="A74" s="71">
         <f>G$10</f>
         <v>1000</v>
       </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="28"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="42"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="27">
+      <c r="A75" s="71">
         <f>H$10</f>
         <v>10000</v>
       </c>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="28"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="42"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="27">
+      <c r="A76" s="71">
         <f>I$10</f>
         <v>100000</v>
       </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="28"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="42"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="27">
+      <c r="A77" s="71">
         <f>J$10</f>
         <v>0</v>
       </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="28"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="37"/>
+      <c r="K77" s="42"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="27">
+      <c r="A78" s="71">
         <f>K$10</f>
         <v>0</v>
       </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="28"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="37"/>
+      <c r="K78" s="42"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="27">
+      <c r="A79" s="71">
         <f>L$10</f>
         <v>0</v>
       </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="28"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="37"/>
+      <c r="K79" s="42"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="27">
+      <c r="A80" s="71">
         <f>M$10</f>
         <v>0</v>
       </c>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="28"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="42"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="27">
+      <c r="A81" s="71">
         <f>N$10</f>
         <v>0</v>
       </c>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="28"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="42"/>
     </row>
     <row r="82" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="29">
+      <c r="A82" s="72">
         <f>O$10</f>
         <v>0</v>
       </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="30"/>
+      <c r="B82" s="47"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="47"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="47"/>
+      <c r="K82" s="48"/>
     </row>
     <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="39" t="s">
+      <c r="A90" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="B90" s="40"/>
-      <c r="C90" s="40"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="40"/>
-      <c r="F90" s="40"/>
-      <c r="G90" s="40"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="40"/>
-      <c r="K90" s="41"/>
+      <c r="B90" s="66"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="66"/>
+      <c r="I90" s="66"/>
+      <c r="J90" s="66"/>
+      <c r="K90" s="67"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="32"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="32"/>
-      <c r="I91" s="32"/>
-      <c r="J91" s="32"/>
-      <c r="K91" s="33"/>
+      <c r="C91" s="69"/>
+      <c r="D91" s="69"/>
+      <c r="E91" s="69"/>
+      <c r="F91" s="69"/>
+      <c r="G91" s="69"/>
+      <c r="H91" s="69"/>
+      <c r="I91" s="69"/>
+      <c r="J91" s="69"/>
+      <c r="K91" s="70"/>
     </row>
     <row r="92" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="24"/>
-      <c r="B92" s="25">
+      <c r="A92" s="64"/>
+      <c r="B92" s="73">
         <f>F$8</f>
         <v>20</v>
       </c>
-      <c r="C92" s="25">
+      <c r="C92" s="74">
         <f t="shared" ref="C92" si="17">G$8</f>
         <v>105</v>
       </c>
-      <c r="D92" s="25">
+      <c r="D92" s="74">
         <f t="shared" ref="D92" si="18">H$8</f>
         <v>0</v>
       </c>
-      <c r="E92" s="25">
+      <c r="E92" s="74">
         <f t="shared" ref="E92" si="19">I$8</f>
         <v>0</v>
       </c>
-      <c r="F92" s="25">
+      <c r="F92" s="74">
         <f t="shared" ref="F92" si="20">J$8</f>
         <v>0</v>
       </c>
-      <c r="G92" s="25">
+      <c r="G92" s="74">
         <f t="shared" ref="G92" si="21">K$8</f>
         <v>0</v>
       </c>
-      <c r="H92" s="25">
+      <c r="H92" s="74">
         <f t="shared" ref="H92" si="22">L$8</f>
         <v>0</v>
       </c>
-      <c r="I92" s="25">
+      <c r="I92" s="74">
         <f t="shared" ref="I92" si="23">M$8</f>
         <v>0</v>
       </c>
-      <c r="J92" s="25">
+      <c r="J92" s="74">
         <f t="shared" ref="J92" si="24">N$8</f>
         <v>0</v>
       </c>
-      <c r="K92" s="26">
+      <c r="K92" s="75">
         <f>O$8</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="27">
+      <c r="A93" s="71">
         <f>F$10</f>
         <v>120</v>
       </c>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="28"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="32"/>
+      <c r="K93" s="76"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="27">
+      <c r="A94" s="71">
         <f>G$10</f>
         <v>1000</v>
       </c>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
-      <c r="K94" s="28"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="37"/>
+      <c r="K94" s="42"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="27">
+      <c r="A95" s="71">
         <f>H$10</f>
         <v>10000</v>
       </c>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="28"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="37"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="37"/>
+      <c r="K95" s="42"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="27">
+      <c r="A96" s="71">
         <f>I$10</f>
         <v>100000</v>
       </c>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
-      <c r="K96" s="28"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="37"/>
+      <c r="K96" s="42"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="27">
+      <c r="A97" s="71">
         <f>J$10</f>
         <v>0</v>
       </c>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
-      <c r="J97" s="9"/>
-      <c r="K97" s="28"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="37"/>
+      <c r="K97" s="42"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="27">
+      <c r="A98" s="71">
         <f>K$10</f>
         <v>0</v>
       </c>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="28"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="37"/>
+      <c r="K98" s="42"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="27">
+      <c r="A99" s="71">
         <f>L$10</f>
         <v>0</v>
       </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="9"/>
-      <c r="K99" s="28"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="37"/>
+      <c r="J99" s="37"/>
+      <c r="K99" s="42"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="27">
+      <c r="A100" s="71">
         <f>M$10</f>
         <v>0</v>
       </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="9"/>
-      <c r="K100" s="28"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="37"/>
+      <c r="I100" s="37"/>
+      <c r="J100" s="37"/>
+      <c r="K100" s="42"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="27">
+      <c r="A101" s="71">
         <f>N$10</f>
         <v>0</v>
       </c>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
-      <c r="J101" s="9"/>
-      <c r="K101" s="28"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="37"/>
+      <c r="K101" s="42"/>
     </row>
     <row r="102" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="29">
+      <c r="A102" s="72">
         <f>O$10</f>
         <v>0</v>
       </c>
-      <c r="B102" s="20"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="20"/>
-      <c r="H102" s="20"/>
-      <c r="I102" s="20"/>
-      <c r="J102" s="20"/>
-      <c r="K102" s="30"/>
+      <c r="B102" s="47"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="47"/>
+      <c r="F102" s="47"/>
+      <c r="G102" s="47"/>
+      <c r="H102" s="47"/>
+      <c r="I102" s="47"/>
+      <c r="J102" s="47"/>
+      <c r="K102" s="48"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:K91"/>
     <mergeCell ref="A90:K90"/>
     <mergeCell ref="A30:K30"/>
     <mergeCell ref="B31:K31"/>
     <mergeCell ref="A50:K50"/>
     <mergeCell ref="B51:K51"/>
     <mergeCell ref="A70:K70"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:K71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12803,7 +13420,7 @@
   <dimension ref="A1:P148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12813,833 +13430,869 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="12" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="35" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="12" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="35" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="12" t="s">
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="35" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="12" t="s">
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="35" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="12"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="12"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="12"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="12"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="35"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="12"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="35"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="12"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="35"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="12"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="35"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="12"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="35"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="12"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="35"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="12"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="35"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="12"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="35"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="12"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="35"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="12"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="35"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="12"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="35"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="12"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="35"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="12"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="35"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="12"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="35"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="12"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="35"/>
     </row>
     <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="22"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="49"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
+      <c r="A29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
     </row>
     <row r="49" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
     </row>
     <row r="50" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
     </row>
     <row r="99" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
@@ -13683,1167 +14336,1167 @@
       </c>
     </row>
     <row r="100" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D100" s="9">
+      <c r="D100" s="1">
         <v>1E-3</v>
       </c>
-      <c r="E100" s="9" t="str">
+      <c r="E100" s="1" t="str">
         <f>IFERROR(E$2*(1-EXP(-$D100/(E$2*E$3))),"")</f>
         <v/>
       </c>
-      <c r="F100" s="9" t="str">
+      <c r="F100" s="1" t="str">
         <f t="shared" ref="F100:O100" si="0">IFERROR(F$2*(1-EXP(-$D100/(F$2*F$3))),"")</f>
         <v/>
       </c>
-      <c r="G100" s="9" t="str">
+      <c r="G100" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H100" s="9" t="str">
+      <c r="H100" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I100" s="9" t="str">
+      <c r="I100" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J100" s="9" t="str">
+      <c r="J100" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K100" s="9" t="str">
+      <c r="K100" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L100" s="9" t="str">
+      <c r="L100" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M100" s="9" t="str">
+      <c r="M100" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N100" s="9" t="str">
+      <c r="N100" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O100" s="9" t="str">
+      <c r="O100" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P100" s="9">
+      <c r="P100" s="1">
         <f>SUM(F100:O100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D101" s="9">
+      <c r="D101" s="1">
         <v>2E-3</v>
       </c>
-      <c r="E101" s="9" t="str">
+      <c r="E101" s="1" t="str">
         <f t="shared" ref="E101:O121" si="1">IFERROR(E$2*(1-EXP(-$D101/(E$2*E$3))),"")</f>
         <v/>
       </c>
-      <c r="F101" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G101" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H101" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I101" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J101" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K101" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L101" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M101" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N101" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O101" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P101" s="9">
+      <c r="F101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P101" s="1">
         <f t="shared" ref="P101:P121" si="2">SUM(F101:O101)</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D102" s="9">
+      <c r="D102" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E102" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F102" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G102" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H102" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I102" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J102" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K102" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L102" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M102" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N102" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O102" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P102" s="9">
+      <c r="E102" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F102" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G102" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H102" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I102" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J102" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K102" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L102" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M102" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N102" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O102" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P102" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D103" s="9">
+      <c r="D103" s="1">
         <v>0.01</v>
       </c>
-      <c r="E103" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F103" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G103" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H103" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I103" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J103" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K103" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L103" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M103" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N103" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O103" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P103" s="9">
+      <c r="E103" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F103" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G103" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H103" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I103" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J103" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K103" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L103" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M103" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N103" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O103" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P103" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D104" s="9">
+      <c r="D104" s="1">
         <v>0.02</v>
       </c>
-      <c r="E104" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F104" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G104" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H104" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I104" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J104" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K104" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L104" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M104" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N104" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O104" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P104" s="9">
+      <c r="E104" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F104" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G104" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H104" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I104" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J104" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K104" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L104" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M104" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N104" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O104" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P104" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D105" s="9">
+      <c r="D105" s="1">
         <v>0.05</v>
       </c>
-      <c r="E105" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F105" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G105" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H105" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I105" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J105" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K105" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L105" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M105" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N105" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O105" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P105" s="9">
+      <c r="E105" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F105" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G105" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H105" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I105" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J105" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K105" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L105" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M105" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N105" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O105" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P105" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D106" s="9">
+      <c r="D106" s="1">
         <v>0.1</v>
       </c>
-      <c r="E106" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F106" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G106" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H106" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I106" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J106" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K106" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L106" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M106" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N106" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O106" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P106" s="9">
+      <c r="E106" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F106" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G106" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H106" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I106" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J106" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K106" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L106" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M106" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N106" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O106" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P106" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D107" s="9">
+      <c r="D107" s="1">
         <v>0.2</v>
       </c>
-      <c r="E107" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F107" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G107" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H107" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I107" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J107" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K107" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L107" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M107" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N107" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O107" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P107" s="9">
+      <c r="E107" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F107" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G107" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H107" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I107" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J107" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K107" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L107" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M107" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N107" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O107" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P107" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D108" s="9">
+      <c r="D108" s="1">
         <v>0.5</v>
       </c>
-      <c r="E108" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F108" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G108" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H108" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I108" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J108" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K108" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L108" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M108" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N108" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O108" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P108" s="9">
+      <c r="E108" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F108" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G108" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H108" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I108" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J108" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K108" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L108" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M108" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N108" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O108" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P108" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D109" s="9">
+      <c r="D109" s="1">
         <v>1</v>
       </c>
-      <c r="E109" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F109" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G109" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H109" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I109" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J109" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K109" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L109" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M109" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N109" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O109" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P109" s="9">
+      <c r="E109" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F109" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G109" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H109" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I109" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J109" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K109" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L109" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M109" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N109" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O109" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P109" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D110" s="9">
+      <c r="D110" s="1">
         <v>2</v>
       </c>
-      <c r="E110" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F110" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G110" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H110" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I110" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J110" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K110" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L110" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M110" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N110" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O110" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P110" s="9">
+      <c r="E110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P110" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D111" s="9">
+      <c r="D111" s="1">
         <v>5</v>
       </c>
-      <c r="E111" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F111" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G111" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H111" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I111" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J111" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K111" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L111" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M111" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N111" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O111" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P111" s="9">
+      <c r="E111" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F111" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G111" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H111" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I111" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J111" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K111" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L111" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M111" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N111" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O111" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P111" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D112" s="9">
+      <c r="D112" s="1">
         <v>10</v>
       </c>
-      <c r="E112" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F112" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G112" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H112" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I112" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J112" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K112" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L112" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M112" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N112" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O112" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P112" s="9">
+      <c r="E112" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F112" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G112" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H112" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I112" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J112" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K112" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L112" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M112" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N112" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O112" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P112" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D113" s="9">
+      <c r="D113" s="1">
         <v>20</v>
       </c>
-      <c r="E113" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F113" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G113" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H113" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I113" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J113" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K113" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L113" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M113" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N113" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O113" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P113" s="9">
+      <c r="E113" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F113" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G113" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H113" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I113" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J113" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K113" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L113" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M113" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N113" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O113" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P113" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D114" s="9">
+      <c r="D114" s="1">
         <v>50</v>
       </c>
-      <c r="E114" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F114" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G114" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H114" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I114" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J114" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K114" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L114" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M114" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N114" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O114" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P114" s="9">
+      <c r="E114" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F114" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G114" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H114" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I114" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J114" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K114" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L114" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M114" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N114" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O114" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P114" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D115" s="9">
+      <c r="D115" s="1">
         <v>100</v>
       </c>
-      <c r="E115" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F115" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G115" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H115" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I115" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J115" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K115" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L115" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M115" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N115" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O115" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P115" s="9">
+      <c r="E115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P115" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D116" s="9">
+      <c r="D116" s="1">
         <v>200</v>
       </c>
-      <c r="E116" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F116" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G116" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H116" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I116" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J116" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K116" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L116" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M116" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N116" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O116" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P116" s="9">
+      <c r="E116" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F116" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G116" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H116" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I116" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J116" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K116" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L116" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M116" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N116" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O116" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P116" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D117" s="9">
+      <c r="D117" s="1">
         <v>500</v>
       </c>
-      <c r="E117" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F117" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G117" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H117" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I117" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J117" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K117" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L117" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M117" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N117" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O117" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P117" s="9">
+      <c r="E117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P117" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D118" s="9">
+      <c r="D118" s="1">
         <v>1000</v>
       </c>
-      <c r="E118" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F118" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G118" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H118" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I118" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J118" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K118" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L118" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M118" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N118" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O118" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P118" s="9">
+      <c r="E118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P118" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D119" s="9">
+      <c r="D119" s="1">
         <v>2000</v>
       </c>
-      <c r="E119" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F119" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G119" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H119" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I119" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J119" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K119" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L119" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M119" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N119" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O119" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P119" s="9">
+      <c r="E119" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F119" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G119" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H119" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I119" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J119" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K119" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L119" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M119" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N119" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O119" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P119" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D120" s="9">
+      <c r="D120" s="1">
         <v>5000</v>
       </c>
-      <c r="E120" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F120" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G120" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H120" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I120" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J120" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K120" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L120" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M120" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N120" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O120" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P120" s="9">
+      <c r="E120" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F120" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G120" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H120" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I120" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J120" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K120" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L120" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M120" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N120" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O120" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P120" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D121" s="9">
+      <c r="D121" s="1">
         <v>10000</v>
       </c>
-      <c r="E121" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F121" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G121" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H121" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I121" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J121" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K121" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L121" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M121" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N121" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O121" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P121" s="9">
+      <c r="E121" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F121" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G121" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H121" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I121" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J121" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K121" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L121" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M121" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N121" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O121" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P121" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14890,1167 +15543,1167 @@
       </c>
     </row>
     <row r="127" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D127" s="9">
+      <c r="D127" s="1">
         <v>1E-3</v>
       </c>
-      <c r="E127" s="9" t="str">
+      <c r="E127" s="1" t="str">
         <f>IFERROR(E$4*(1-EXP(-$D127/(E$4*E$5))),"")</f>
         <v/>
       </c>
-      <c r="F127" s="9" t="str">
+      <c r="F127" s="1" t="str">
         <f t="shared" ref="F127:O142" si="3">IFERROR(F$4*(1-EXP(-$D127/(F$4*F$5))),"")</f>
         <v/>
       </c>
-      <c r="G127" s="9" t="str">
+      <c r="G127" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H127" s="9" t="str">
+      <c r="H127" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I127" s="9" t="str">
+      <c r="I127" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J127" s="9" t="str">
+      <c r="J127" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K127" s="9" t="str">
+      <c r="K127" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L127" s="9" t="str">
+      <c r="L127" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M127" s="9" t="str">
+      <c r="M127" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N127" s="9" t="str">
+      <c r="N127" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O127" s="9" t="str">
+      <c r="O127" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P127" s="9">
+      <c r="P127" s="1">
         <f>SUM(F127:O127)</f>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D128" s="9">
+      <c r="D128" s="1">
         <v>2E-3</v>
       </c>
-      <c r="E128" s="9" t="str">
+      <c r="E128" s="1" t="str">
         <f t="shared" ref="E128:O148" si="4">IFERROR(E$4*(1-EXP(-$D128/(E$4*E$5))),"")</f>
         <v/>
       </c>
-      <c r="F128" s="9" t="str">
+      <c r="F128" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G128" s="9" t="str">
+      <c r="G128" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H128" s="9" t="str">
+      <c r="H128" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I128" s="9" t="str">
+      <c r="I128" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J128" s="9" t="str">
+      <c r="J128" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K128" s="9" t="str">
+      <c r="K128" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L128" s="9" t="str">
+      <c r="L128" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M128" s="9" t="str">
+      <c r="M128" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N128" s="9" t="str">
+      <c r="N128" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O128" s="9" t="str">
+      <c r="O128" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P128" s="9">
+      <c r="P128" s="1">
         <f t="shared" ref="P128:P147" si="5">SUM(F128:O128)</f>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D129" s="9">
+      <c r="D129" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E129" s="9" t="str">
+      <c r="E129" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F129" s="9" t="str">
+      <c r="F129" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G129" s="9" t="str">
+      <c r="G129" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H129" s="9" t="str">
+      <c r="H129" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I129" s="9" t="str">
+      <c r="I129" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J129" s="9" t="str">
+      <c r="J129" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K129" s="9" t="str">
+      <c r="K129" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L129" s="9" t="str">
+      <c r="L129" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M129" s="9" t="str">
+      <c r="M129" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N129" s="9" t="str">
+      <c r="N129" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O129" s="9" t="str">
+      <c r="O129" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P129" s="9">
+      <c r="P129" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D130" s="9">
+      <c r="D130" s="1">
         <v>0.01</v>
       </c>
-      <c r="E130" s="9" t="str">
+      <c r="E130" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F130" s="9" t="str">
+      <c r="F130" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G130" s="9" t="str">
+      <c r="G130" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H130" s="9" t="str">
+      <c r="H130" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I130" s="9" t="str">
+      <c r="I130" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J130" s="9" t="str">
+      <c r="J130" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K130" s="9" t="str">
+      <c r="K130" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L130" s="9" t="str">
+      <c r="L130" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M130" s="9" t="str">
+      <c r="M130" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N130" s="9" t="str">
+      <c r="N130" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O130" s="9" t="str">
+      <c r="O130" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P130" s="9">
+      <c r="P130" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D131" s="9">
+      <c r="D131" s="1">
         <v>0.02</v>
       </c>
-      <c r="E131" s="9" t="str">
+      <c r="E131" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F131" s="9" t="str">
+      <c r="F131" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G131" s="9" t="str">
+      <c r="G131" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H131" s="9" t="str">
+      <c r="H131" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I131" s="9" t="str">
+      <c r="I131" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J131" s="9" t="str">
+      <c r="J131" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K131" s="9" t="str">
+      <c r="K131" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L131" s="9" t="str">
+      <c r="L131" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M131" s="9" t="str">
+      <c r="M131" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N131" s="9" t="str">
+      <c r="N131" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O131" s="9" t="str">
+      <c r="O131" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P131" s="9">
+      <c r="P131" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D132" s="9">
+      <c r="D132" s="1">
         <v>0.05</v>
       </c>
-      <c r="E132" s="9" t="str">
+      <c r="E132" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F132" s="9" t="str">
+      <c r="F132" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G132" s="9" t="str">
+      <c r="G132" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H132" s="9" t="str">
+      <c r="H132" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I132" s="9" t="str">
+      <c r="I132" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J132" s="9" t="str">
+      <c r="J132" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K132" s="9" t="str">
+      <c r="K132" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L132" s="9" t="str">
+      <c r="L132" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M132" s="9" t="str">
+      <c r="M132" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N132" s="9" t="str">
+      <c r="N132" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O132" s="9" t="str">
+      <c r="O132" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P132" s="9">
+      <c r="P132" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D133" s="9">
+      <c r="D133" s="1">
         <v>0.1</v>
       </c>
-      <c r="E133" s="9" t="str">
+      <c r="E133" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F133" s="9" t="str">
+      <c r="F133" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G133" s="9" t="str">
+      <c r="G133" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H133" s="9" t="str">
+      <c r="H133" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I133" s="9" t="str">
+      <c r="I133" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J133" s="9" t="str">
+      <c r="J133" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K133" s="9" t="str">
+      <c r="K133" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L133" s="9" t="str">
+      <c r="L133" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M133" s="9" t="str">
+      <c r="M133" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N133" s="9" t="str">
+      <c r="N133" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O133" s="9" t="str">
+      <c r="O133" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P133" s="9">
+      <c r="P133" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D134" s="9">
+      <c r="D134" s="1">
         <v>0.2</v>
       </c>
-      <c r="E134" s="9" t="str">
+      <c r="E134" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F134" s="9" t="str">
+      <c r="F134" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G134" s="9" t="str">
+      <c r="G134" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H134" s="9" t="str">
+      <c r="H134" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I134" s="9" t="str">
+      <c r="I134" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J134" s="9" t="str">
+      <c r="J134" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K134" s="9" t="str">
+      <c r="K134" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L134" s="9" t="str">
+      <c r="L134" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M134" s="9" t="str">
+      <c r="M134" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N134" s="9" t="str">
+      <c r="N134" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O134" s="9" t="str">
+      <c r="O134" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P134" s="9">
+      <c r="P134" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D135" s="9">
+      <c r="D135" s="1">
         <v>0.5</v>
       </c>
-      <c r="E135" s="9" t="str">
+      <c r="E135" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F135" s="9" t="str">
+      <c r="F135" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G135" s="9" t="str">
+      <c r="G135" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H135" s="9" t="str">
+      <c r="H135" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I135" s="9" t="str">
+      <c r="I135" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J135" s="9" t="str">
+      <c r="J135" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K135" s="9" t="str">
+      <c r="K135" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L135" s="9" t="str">
+      <c r="L135" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M135" s="9" t="str">
+      <c r="M135" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N135" s="9" t="str">
+      <c r="N135" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O135" s="9" t="str">
+      <c r="O135" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P135" s="9">
+      <c r="P135" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D136" s="9">
+      <c r="D136" s="1">
         <v>1</v>
       </c>
-      <c r="E136" s="9" t="str">
+      <c r="E136" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F136" s="9" t="str">
+      <c r="F136" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G136" s="9" t="str">
+      <c r="G136" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H136" s="9" t="str">
+      <c r="H136" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I136" s="9" t="str">
+      <c r="I136" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J136" s="9" t="str">
+      <c r="J136" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K136" s="9" t="str">
+      <c r="K136" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L136" s="9" t="str">
+      <c r="L136" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M136" s="9" t="str">
+      <c r="M136" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N136" s="9" t="str">
+      <c r="N136" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O136" s="9" t="str">
+      <c r="O136" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P136" s="9">
+      <c r="P136" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D137" s="9">
+      <c r="D137" s="1">
         <v>2</v>
       </c>
-      <c r="E137" s="9" t="str">
+      <c r="E137" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F137" s="9" t="str">
+      <c r="F137" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G137" s="9" t="str">
+      <c r="G137" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H137" s="9" t="str">
+      <c r="H137" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I137" s="9" t="str">
+      <c r="I137" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J137" s="9" t="str">
+      <c r="J137" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K137" s="9" t="str">
+      <c r="K137" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L137" s="9" t="str">
+      <c r="L137" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M137" s="9" t="str">
+      <c r="M137" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N137" s="9" t="str">
+      <c r="N137" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O137" s="9" t="str">
+      <c r="O137" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P137" s="9">
+      <c r="P137" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D138" s="9">
+      <c r="D138" s="1">
         <v>5</v>
       </c>
-      <c r="E138" s="9" t="str">
+      <c r="E138" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F138" s="9" t="str">
+      <c r="F138" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G138" s="9" t="str">
+      <c r="G138" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H138" s="9" t="str">
+      <c r="H138" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I138" s="9" t="str">
+      <c r="I138" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J138" s="9" t="str">
+      <c r="J138" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K138" s="9" t="str">
+      <c r="K138" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L138" s="9" t="str">
+      <c r="L138" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M138" s="9" t="str">
+      <c r="M138" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N138" s="9" t="str">
+      <c r="N138" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O138" s="9" t="str">
+      <c r="O138" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P138" s="9">
+      <c r="P138" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D139" s="9">
+      <c r="D139" s="1">
         <v>10</v>
       </c>
-      <c r="E139" s="9" t="str">
+      <c r="E139" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F139" s="9" t="str">
+      <c r="F139" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G139" s="9" t="str">
+      <c r="G139" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H139" s="9" t="str">
+      <c r="H139" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I139" s="9" t="str">
+      <c r="I139" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J139" s="9" t="str">
+      <c r="J139" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K139" s="9" t="str">
+      <c r="K139" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L139" s="9" t="str">
+      <c r="L139" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M139" s="9" t="str">
+      <c r="M139" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N139" s="9" t="str">
+      <c r="N139" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O139" s="9" t="str">
+      <c r="O139" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P139" s="9">
+      <c r="P139" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D140" s="9">
+      <c r="D140" s="1">
         <v>20</v>
       </c>
-      <c r="E140" s="9" t="str">
+      <c r="E140" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F140" s="9" t="str">
+      <c r="F140" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G140" s="9" t="str">
+      <c r="G140" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H140" s="9" t="str">
+      <c r="H140" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I140" s="9" t="str">
+      <c r="I140" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J140" s="9" t="str">
+      <c r="J140" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K140" s="9" t="str">
+      <c r="K140" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L140" s="9" t="str">
+      <c r="L140" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M140" s="9" t="str">
+      <c r="M140" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N140" s="9" t="str">
+      <c r="N140" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O140" s="9" t="str">
+      <c r="O140" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P140" s="9">
+      <c r="P140" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D141" s="9">
+      <c r="D141" s="1">
         <v>50</v>
       </c>
-      <c r="E141" s="9" t="str">
+      <c r="E141" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F141" s="9" t="str">
+      <c r="F141" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G141" s="9" t="str">
+      <c r="G141" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H141" s="9" t="str">
+      <c r="H141" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I141" s="9" t="str">
+      <c r="I141" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J141" s="9" t="str">
+      <c r="J141" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K141" s="9" t="str">
+      <c r="K141" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L141" s="9" t="str">
+      <c r="L141" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M141" s="9" t="str">
+      <c r="M141" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N141" s="9" t="str">
+      <c r="N141" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O141" s="9" t="str">
+      <c r="O141" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P141" s="9">
+      <c r="P141" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D142" s="9">
+      <c r="D142" s="1">
         <v>100</v>
       </c>
-      <c r="E142" s="9" t="str">
+      <c r="E142" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F142" s="9" t="str">
+      <c r="F142" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G142" s="9" t="str">
+      <c r="G142" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H142" s="9" t="str">
+      <c r="H142" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I142" s="9" t="str">
+      <c r="I142" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J142" s="9" t="str">
+      <c r="J142" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K142" s="9" t="str">
+      <c r="K142" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L142" s="9" t="str">
+      <c r="L142" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M142" s="9" t="str">
+      <c r="M142" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N142" s="9" t="str">
+      <c r="N142" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O142" s="9" t="str">
+      <c r="O142" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P142" s="9">
+      <c r="P142" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D143" s="9">
+      <c r="D143" s="1">
         <v>200</v>
       </c>
-      <c r="E143" s="9" t="str">
+      <c r="E143" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F143" s="9" t="str">
+      <c r="F143" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G143" s="9" t="str">
+      <c r="G143" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H143" s="9" t="str">
+      <c r="H143" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I143" s="9" t="str">
+      <c r="I143" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J143" s="9" t="str">
+      <c r="J143" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K143" s="9" t="str">
+      <c r="K143" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L143" s="9" t="str">
+      <c r="L143" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M143" s="9" t="str">
+      <c r="M143" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N143" s="9" t="str">
+      <c r="N143" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O143" s="9" t="str">
+      <c r="O143" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P143" s="9">
+      <c r="P143" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D144" s="9">
+      <c r="D144" s="1">
         <v>500</v>
       </c>
-      <c r="E144" s="9" t="str">
+      <c r="E144" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F144" s="9" t="str">
+      <c r="F144" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G144" s="9" t="str">
+      <c r="G144" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H144" s="9" t="str">
+      <c r="H144" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I144" s="9" t="str">
+      <c r="I144" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J144" s="9" t="str">
+      <c r="J144" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K144" s="9" t="str">
+      <c r="K144" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L144" s="9" t="str">
+      <c r="L144" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M144" s="9" t="str">
+      <c r="M144" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N144" s="9" t="str">
+      <c r="N144" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O144" s="9" t="str">
+      <c r="O144" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P144" s="9">
+      <c r="P144" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D145" s="9">
+      <c r="D145" s="1">
         <v>1000</v>
       </c>
-      <c r="E145" s="9" t="str">
+      <c r="E145" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F145" s="9" t="str">
+      <c r="F145" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G145" s="9" t="str">
+      <c r="G145" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H145" s="9" t="str">
+      <c r="H145" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I145" s="9" t="str">
+      <c r="I145" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J145" s="9" t="str">
+      <c r="J145" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K145" s="9" t="str">
+      <c r="K145" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L145" s="9" t="str">
+      <c r="L145" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M145" s="9" t="str">
+      <c r="M145" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N145" s="9" t="str">
+      <c r="N145" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O145" s="9" t="str">
+      <c r="O145" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P145" s="9">
+      <c r="P145" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D146" s="9">
+      <c r="D146" s="1">
         <v>2000</v>
       </c>
-      <c r="E146" s="9" t="str">
+      <c r="E146" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F146" s="9" t="str">
+      <c r="F146" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G146" s="9" t="str">
+      <c r="G146" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H146" s="9" t="str">
+      <c r="H146" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I146" s="9" t="str">
+      <c r="I146" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J146" s="9" t="str">
+      <c r="J146" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K146" s="9" t="str">
+      <c r="K146" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L146" s="9" t="str">
+      <c r="L146" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M146" s="9" t="str">
+      <c r="M146" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N146" s="9" t="str">
+      <c r="N146" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O146" s="9" t="str">
+      <c r="O146" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P146" s="9">
+      <c r="P146" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D147" s="9">
+      <c r="D147" s="1">
         <v>5000</v>
       </c>
-      <c r="E147" s="9" t="str">
+      <c r="E147" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F147" s="9" t="str">
+      <c r="F147" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G147" s="9" t="str">
+      <c r="G147" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H147" s="9" t="str">
+      <c r="H147" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I147" s="9" t="str">
+      <c r="I147" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J147" s="9" t="str">
+      <c r="J147" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K147" s="9" t="str">
+      <c r="K147" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L147" s="9" t="str">
+      <c r="L147" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M147" s="9" t="str">
+      <c r="M147" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N147" s="9" t="str">
+      <c r="N147" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O147" s="9" t="str">
+      <c r="O147" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P147" s="9">
+      <c r="P147" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D148" s="9">
+      <c r="D148" s="1">
         <v>10000</v>
       </c>
-      <c r="E148" s="9" t="str">
+      <c r="E148" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F148" s="9" t="str">
+      <c r="F148" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G148" s="9" t="str">
+      <c r="G148" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H148" s="9" t="str">
+      <c r="H148" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I148" s="9" t="str">
+      <c r="I148" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J148" s="9" t="str">
+      <c r="J148" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K148" s="9" t="str">
+      <c r="K148" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L148" s="9" t="str">
+      <c r="L148" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M148" s="9" t="str">
+      <c r="M148" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N148" s="9" t="str">
+      <c r="N148" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O148" s="9" t="str">
+      <c r="O148" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P148" s="9">
+      <c r="P148" s="1">
         <f>SUM(F148:O148)</f>
         <v>0</v>
       </c>
